--- a/simulators.xlsx
+++ b/simulators.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\OneDrive - Universidade de Lisboa\MEEC\5y-thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Documents\GitHub\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="347" documentId="8_{42ECC09B-DCB8-4A2D-863E-1DE45629E278}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{CA6D6CD6-3F10-4B89-A9C2-6FC7FD14F03E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E54EE1E-E0FD-44D3-8EEB-6666CF69E94C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{4E9B9DB1-AD86-462F-ABE1-AF8EFB24C250}"/>
   </bookViews>
   <sheets>
-    <sheet name="Simulators" sheetId="1" r:id="rId1"/>
+    <sheet name="Simulators_v2" sheetId="2" r:id="rId1"/>
+    <sheet name="Simulators" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="265">
   <si>
     <t>https://www.researchgate.net/post/How_can_I_implement_fog_computing_in_NetSim</t>
   </si>
@@ -1347,11 +1348,1763 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766B7034-B3C3-4E86-9F1C-C72AFBD67B0A}">
+  <dimension ref="A1:R56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="15" width="11.88671875" customWidth="1"/>
+    <col min="16" max="16" width="57.109375" customWidth="1"/>
+    <col min="17" max="17" width="38.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q2" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="R5" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q12" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q14" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="R14" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q16" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="R18" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q23" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="R23" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="O24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="O25" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q25" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27" s="17"/>
+      <c r="L27" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" s="7"/>
+      <c r="L28" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="M28" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="R28" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q29" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="R29" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q30" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="20"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q31" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="R31" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P33" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q33" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R33" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="R34" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="R35" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="O36" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="R36" s="14" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P37" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q37" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="R37" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O38" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q38" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="R38" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P39" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q39" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O40" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q40" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="R40" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="19" t="s">
+        <v>237</v>
+      </c>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q41" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="R41" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O42" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q42" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="R42" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q43" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="R43" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O44" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q44" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="R44" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="72" x14ac:dyDescent="0.3">
+      <c r="A45" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q45" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="R45" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O46" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q46" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="R46" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q47" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="R47" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="O48" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q48" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="R48" s="12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P49" s="6"/>
+      <c r="Q49" s="20"/>
+      <c r="R49" s="7"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="20"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="P53" s="1"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="P54" s="1"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="P55" s="1"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="P56" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q24" r:id="rId1" xr:uid="{8F04601D-BE18-40DD-BB2C-C509A7ACFF47}"/>
+    <hyperlink ref="Q25" r:id="rId2" xr:uid="{C7439A2B-7716-437E-8EE0-4FAA4C485F91}"/>
+    <hyperlink ref="Q28" r:id="rId3" xr:uid="{FEF29BDC-5132-4EA4-ADB0-0C3696EA5B47}"/>
+    <hyperlink ref="Q8" r:id="rId4" xr:uid="{07D9BF00-6211-4465-BB11-1CB4CAAFEB9F}"/>
+    <hyperlink ref="Q7" r:id="rId5" xr:uid="{EBC0F41F-9694-4F90-8734-65A171074147}"/>
+    <hyperlink ref="Q6" r:id="rId6" xr:uid="{0980BFF7-8063-432A-B781-32790D123E5E}"/>
+    <hyperlink ref="Q5" r:id="rId7" xr:uid="{47DD34EE-89E5-4AC7-B44A-31F8AE43C690}"/>
+    <hyperlink ref="Q4" r:id="rId8" xr:uid="{F929A1D4-BD38-4E5F-A3BE-A44BC1BE8062}"/>
+    <hyperlink ref="Q3" r:id="rId9" xr:uid="{520BA0A3-C222-406F-8ED1-57BFD6880FA7}"/>
+    <hyperlink ref="Q2" r:id="rId10" xr:uid="{04156966-5806-40E5-B3E6-0BD2BE8F353C}"/>
+    <hyperlink ref="Q9" r:id="rId11" xr:uid="{3B1CCA3C-DF98-41C4-AA51-D43C3EA4C48B}"/>
+    <hyperlink ref="Q10" r:id="rId12" xr:uid="{62F13E12-98A7-4A80-BAC9-94631719F569}"/>
+    <hyperlink ref="Q11" r:id="rId13" xr:uid="{6803DFDF-1CF0-4C2B-9EF9-CC1D4B0CE2B2}"/>
+    <hyperlink ref="Q12" r:id="rId14" xr:uid="{E4D4190E-E69A-4EE0-827B-920D0D088910}"/>
+    <hyperlink ref="Q13" r:id="rId15" xr:uid="{C92F97F2-684C-4603-9CB4-962AA7717408}"/>
+    <hyperlink ref="Q14" r:id="rId16" xr:uid="{A02702DE-F1AA-41A9-BD63-FECF2B09366F}"/>
+    <hyperlink ref="Q15" r:id="rId17" xr:uid="{5B48135F-0822-414C-8D5A-B76BF0D23DBC}"/>
+    <hyperlink ref="Q16" r:id="rId18" display="https://yafs.readthedocs.io/en/latest/" xr:uid="{B87E75B3-C55B-4C76-AAA6-33E150E8C062}"/>
+    <hyperlink ref="Q18" r:id="rId19" xr:uid="{C42E10B3-34BE-4D0D-B3A2-7B4E8A19A51C}"/>
+    <hyperlink ref="Q19" r:id="rId20" xr:uid="{C0098EC6-1CD2-4256-9655-AAE85B2DD7EA}"/>
+    <hyperlink ref="Q21" r:id="rId21" xr:uid="{44A89540-1E67-45B3-9BE7-6E5DFB09AF03}"/>
+    <hyperlink ref="Q22" r:id="rId22" xr:uid="{EF25FD6F-1385-4B63-9896-11847529D44B}"/>
+    <hyperlink ref="Q23" r:id="rId23" xr:uid="{04FFC5AA-BC60-4F1F-8F82-81DB14430309}"/>
+    <hyperlink ref="Q29" r:id="rId24" xr:uid="{918B8AC5-180E-4940-AB65-07EB923E4F5F}"/>
+    <hyperlink ref="Q30" r:id="rId25" xr:uid="{5659E90E-47CC-402D-9CAA-E14C0FEBCE76}"/>
+    <hyperlink ref="Q31" r:id="rId26" xr:uid="{68B94B25-7CC7-47EC-BD90-681D14787DDD}"/>
+    <hyperlink ref="Q33" r:id="rId27" xr:uid="{EC5E9B27-8100-49D6-AE4B-BEB7F2804023}"/>
+    <hyperlink ref="Q34" r:id="rId28" xr:uid="{194DDE3C-9541-4C9A-880B-258DBFC87759}"/>
+    <hyperlink ref="Q35" r:id="rId29" xr:uid="{28B0133F-CC3A-4748-845D-FE2FDAF2A56D}"/>
+    <hyperlink ref="Q17" r:id="rId30" xr:uid="{4B1D7DE7-B6CB-4F4B-AA12-9C58259214CD}"/>
+    <hyperlink ref="Q36" r:id="rId31" xr:uid="{03F67F50-AC64-4992-86C7-3FB6E7566854}"/>
+    <hyperlink ref="Q20" r:id="rId32" xr:uid="{E01F87EB-29CE-4362-A309-CCFCDFCB7018}"/>
+    <hyperlink ref="Q38" r:id="rId33" xr:uid="{F786FBAD-02D8-4EA9-988B-B28AA52340BF}"/>
+    <hyperlink ref="Q37" r:id="rId34" xr:uid="{2C40B6BD-3929-45C7-90C6-D357A3FD8533}"/>
+    <hyperlink ref="Q39" r:id="rId35" xr:uid="{8C97A54F-A448-48DD-BF59-94926D0EE56B}"/>
+    <hyperlink ref="Q40" r:id="rId36" display="https://github.com/ParadropLabs/Paradrop" xr:uid="{88850A09-8A0E-4EB7-9116-8E1E9016E581}"/>
+    <hyperlink ref="Q41" r:id="rId37" display="https://github.com/fogbed/fogbed" xr:uid="{2BF05C0E-CD23-4866-A523-020F58678AC1}"/>
+    <hyperlink ref="Q43" r:id="rId38" xr:uid="{9E691AAB-3716-4D4F-9A16-BE2946E764AB}"/>
+    <hyperlink ref="Q44" r:id="rId39" xr:uid="{901C773D-FD51-4A15-B831-B724F07F122D}"/>
+    <hyperlink ref="Q45" r:id="rId40" xr:uid="{9BD6403B-F868-4093-97D7-8C56FD11E6D1}"/>
+    <hyperlink ref="Q46" r:id="rId41" xr:uid="{3CF6F06A-BDD3-4EB1-93AA-47377A199191}"/>
+    <hyperlink ref="Q47" r:id="rId42" xr:uid="{0303BD42-06DC-4BA2-9CC6-753B105C924E}"/>
+    <hyperlink ref="Q42" r:id="rId43" xr:uid="{F439ED57-CDA7-480E-9ADE-AA2DAE8E24A0}"/>
+    <hyperlink ref="Q48" r:id="rId44" xr:uid="{914C127C-F393-458C-B313-98F473690CE0}"/>
+    <hyperlink ref="Q24" r:id="rId45" display="http://simgrid.gforge.inria.fr" xr:uid="{2B37E65A-5594-439A-AF61-442EC7378B73}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId46"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0ECC1E-0276-4E25-9545-6E5C69A5CE5C}">
   <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R46" sqref="R46"/>
+    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/simulators.xlsx
+++ b/simulators.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose\Documents\GitHub\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E54EE1E-E0FD-44D3-8EEB-6666CF69E94C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA247D5-EDF5-4176-B5D6-08138101DDDB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{4E9B9DB1-AD86-462F-ABE1-AF8EFB24C250}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="267">
   <si>
     <t>https://www.researchgate.net/post/How_can_I_implement_fog_computing_in_NetSim</t>
   </si>
@@ -845,12 +845,6 @@
     <t>https://github.com/SEI-TTG/pycloud/wiki</t>
   </si>
   <si>
-    <t>KD-Cloudlet</t>
-  </si>
-  <si>
-    <t>Software implementation19 of an in-the-field solution for establishing trusted identities in disconnected edge environments.</t>
-  </si>
-  <si>
     <t>Federation Policy</t>
   </si>
   <si>
@@ -861,6 +855,18 @@
   </si>
   <si>
     <t xml:space="preserve"> +/-</t>
+  </si>
+  <si>
+    <t>iFogStor</t>
+  </si>
+  <si>
+    <t>An IoT Data Placement Strategy for Fog Infrastructure.</t>
+  </si>
+  <si>
+    <t>pycloud</t>
+  </si>
+  <si>
+    <t>Python-based Cloudlet Server component of KD-Cloudlet, an infrastructure for VM-based cyber-foraging.</t>
   </si>
 </sst>
 </file>
@@ -1349,9 +1355,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766B7034-B3C3-4E86-9F1C-C72AFBD67B0A}">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1399,7 +1407,7 @@
         <v>196</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N1" s="20" t="s">
         <v>195</v>
@@ -1452,7 +1460,7 @@
         <v>157</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1508,7 +1516,7 @@
         <v>157</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -1538,7 +1546,7 @@
         <v>157</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -1568,7 +1576,7 @@
         <v>157</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -1598,7 +1606,7 @@
         <v>157</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -1634,7 +1642,7 @@
         <v>157</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -1670,7 +1678,7 @@
         <v>157</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="72" x14ac:dyDescent="0.3">
@@ -1700,7 +1708,7 @@
         <v>157</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -1730,7 +1738,7 @@
         <v>157</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -1776,7 +1784,7 @@
         <v>157</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -1806,7 +1814,7 @@
         <v>157</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -1836,7 +1844,7 @@
         <v>157</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -1888,7 +1896,7 @@
         <v>157</v>
       </c>
       <c r="R14" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -1918,7 +1926,7 @@
         <v>155</v>
       </c>
       <c r="R15" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -1950,7 +1958,7 @@
         <v>209</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -1980,7 +1988,7 @@
         <v>212</v>
       </c>
       <c r="R17" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -2010,7 +2018,7 @@
         <v>147</v>
       </c>
       <c r="R18" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
@@ -2040,7 +2048,7 @@
         <v>141</v>
       </c>
       <c r="R19" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -2070,7 +2078,7 @@
         <v>226</v>
       </c>
       <c r="R20" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -2100,7 +2108,7 @@
         <v>137</v>
       </c>
       <c r="R21" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -2130,7 +2138,7 @@
         <v>132</v>
       </c>
       <c r="R22" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -2162,7 +2170,7 @@
         <v>128</v>
       </c>
       <c r="R23" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -2218,7 +2226,7 @@
         <v>118</v>
       </c>
       <c r="R24" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -2266,7 +2274,7 @@
         <v>106</v>
       </c>
       <c r="R25" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="72" x14ac:dyDescent="0.3">
@@ -2302,7 +2310,7 @@
       </c>
       <c r="Q26" s="15"/>
       <c r="R26" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
@@ -2352,7 +2360,7 @@
       </c>
       <c r="Q27" s="18"/>
       <c r="R27" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="28" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -2400,7 +2408,7 @@
         <v>76</v>
       </c>
       <c r="R28" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
@@ -2436,7 +2444,7 @@
         <v>51</v>
       </c>
       <c r="R29" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -2472,7 +2480,7 @@
         <v>43</v>
       </c>
       <c r="R30" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -2508,7 +2516,7 @@
         <v>40</v>
       </c>
       <c r="R31" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
@@ -2542,16 +2550,16 @@
       </c>
       <c r="Q32" s="18"/>
       <c r="R32" s="8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="17" t="s">
         <v>14</v>
       </c>
       <c r="E33" s="17"/>
@@ -2564,108 +2572,100 @@
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
       <c r="N33" s="17"/>
-      <c r="O33" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="P33" s="16" t="s">
-        <v>13</v>
+      <c r="O33" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="Q33" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="R33" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="R33" s="12" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="P34" s="13" t="s">
-        <v>10</v>
+        <v>227</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="O34" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="Q34" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="R34" s="12" t="s">
-        <v>264</v>
+        <v>228</v>
+      </c>
+      <c r="R34" s="8" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
+        <v>233</v>
+      </c>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
       <c r="O35" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P35" s="10" t="s">
-        <v>7</v>
+      <c r="P35" s="16" t="s">
+        <v>231</v>
       </c>
       <c r="Q35" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="R35" s="12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>68</v>
+        <v>234</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>14</v>
       </c>
       <c r="O36" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P36" s="5" t="s">
-        <v>222</v>
+      <c r="P36" s="13" t="s">
+        <v>235</v>
       </c>
       <c r="Q36" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="R36" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="R36" s="12" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
@@ -2676,22 +2676,22 @@
       <c r="L37" s="18"/>
       <c r="M37" s="18"/>
       <c r="N37" s="18"/>
-      <c r="O37" s="18" t="s">
-        <v>16</v>
+      <c r="O37" s="14" t="s">
+        <v>20</v>
       </c>
       <c r="P37" s="16" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="Q37" s="15" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="R37" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="D38" s="20" t="s">
         <v>14</v>
@@ -2699,19 +2699,19 @@
       <c r="O38" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="P38" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q38" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="R38" s="8" t="s">
-        <v>263</v>
+      <c r="P38" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q38" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="R38" s="12" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -2732,18 +2732,18 @@
         <v>20</v>
       </c>
       <c r="P39" s="16" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="Q39" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="R39" s="8" t="s">
-        <v>263</v>
+        <v>240</v>
+      </c>
+      <c r="R39" s="12" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="D40" s="20" t="s">
         <v>14</v>
@@ -2752,18 +2752,18 @@
         <v>20</v>
       </c>
       <c r="P40" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q40" s="9" t="s">
-        <v>236</v>
+        <v>244</v>
+      </c>
+      <c r="Q40" s="25" t="s">
+        <v>245</v>
       </c>
       <c r="R40" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
@@ -2784,267 +2784,105 @@
         <v>20</v>
       </c>
       <c r="P41" s="16" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="Q41" s="15" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="R41" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="O42" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="5" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="O42" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="P42" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q42" s="25" t="s">
-        <v>254</v>
-      </c>
-      <c r="R42" s="12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="19" t="s">
-        <v>242</v>
-      </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="P43" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q43" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="R43" s="12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="O44" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="P44" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q44" s="25" t="s">
-        <v>245</v>
-      </c>
-      <c r="R44" s="12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A45" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="P45" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q45" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="R45" s="12" t="s">
-        <v>264</v>
-      </c>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="12"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P43" s="6"/>
+      <c r="Q43" s="20"/>
+      <c r="R43" s="7"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="20"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="P45" s="1"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A46" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="O46" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="P46" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q46" s="25" t="s">
-        <v>249</v>
-      </c>
-      <c r="R46" s="12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A47" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="P47" s="16" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q47" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="R47" s="12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="O48" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="P48" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q48" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="R48" s="12" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="P49" s="6"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="7"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="20"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="P52" s="1"/>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="P53" s="1"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="P54" s="1"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="P55" s="1"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="P56" s="1"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="P50" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3074,28 +2912,21 @@
     <hyperlink ref="Q29" r:id="rId24" xr:uid="{918B8AC5-180E-4940-AB65-07EB923E4F5F}"/>
     <hyperlink ref="Q30" r:id="rId25" xr:uid="{5659E90E-47CC-402D-9CAA-E14C0FEBCE76}"/>
     <hyperlink ref="Q31" r:id="rId26" xr:uid="{68B94B25-7CC7-47EC-BD90-681D14787DDD}"/>
-    <hyperlink ref="Q33" r:id="rId27" xr:uid="{EC5E9B27-8100-49D6-AE4B-BEB7F2804023}"/>
-    <hyperlink ref="Q34" r:id="rId28" xr:uid="{194DDE3C-9541-4C9A-880B-258DBFC87759}"/>
-    <hyperlink ref="Q35" r:id="rId29" xr:uid="{28B0133F-CC3A-4748-845D-FE2FDAF2A56D}"/>
-    <hyperlink ref="Q17" r:id="rId30" xr:uid="{4B1D7DE7-B6CB-4F4B-AA12-9C58259214CD}"/>
-    <hyperlink ref="Q36" r:id="rId31" xr:uid="{03F67F50-AC64-4992-86C7-3FB6E7566854}"/>
-    <hyperlink ref="Q20" r:id="rId32" xr:uid="{E01F87EB-29CE-4362-A309-CCFCDFCB7018}"/>
-    <hyperlink ref="Q38" r:id="rId33" xr:uid="{F786FBAD-02D8-4EA9-988B-B28AA52340BF}"/>
-    <hyperlink ref="Q37" r:id="rId34" xr:uid="{2C40B6BD-3929-45C7-90C6-D357A3FD8533}"/>
-    <hyperlink ref="Q39" r:id="rId35" xr:uid="{8C97A54F-A448-48DD-BF59-94926D0EE56B}"/>
-    <hyperlink ref="Q40" r:id="rId36" display="https://github.com/ParadropLabs/Paradrop" xr:uid="{88850A09-8A0E-4EB7-9116-8E1E9016E581}"/>
-    <hyperlink ref="Q41" r:id="rId37" display="https://github.com/fogbed/fogbed" xr:uid="{2BF05C0E-CD23-4866-A523-020F58678AC1}"/>
-    <hyperlink ref="Q43" r:id="rId38" xr:uid="{9E691AAB-3716-4D4F-9A16-BE2946E764AB}"/>
-    <hyperlink ref="Q44" r:id="rId39" xr:uid="{901C773D-FD51-4A15-B831-B724F07F122D}"/>
-    <hyperlink ref="Q45" r:id="rId40" xr:uid="{9BD6403B-F868-4093-97D7-8C56FD11E6D1}"/>
-    <hyperlink ref="Q46" r:id="rId41" xr:uid="{3CF6F06A-BDD3-4EB1-93AA-47377A199191}"/>
-    <hyperlink ref="Q47" r:id="rId42" xr:uid="{0303BD42-06DC-4BA2-9CC6-753B105C924E}"/>
-    <hyperlink ref="Q42" r:id="rId43" xr:uid="{F439ED57-CDA7-480E-9ADE-AA2DAE8E24A0}"/>
-    <hyperlink ref="Q48" r:id="rId44" xr:uid="{914C127C-F393-458C-B313-98F473690CE0}"/>
-    <hyperlink ref="Q24" r:id="rId45" display="http://simgrid.gforge.inria.fr" xr:uid="{2B37E65A-5594-439A-AF61-442EC7378B73}"/>
+    <hyperlink ref="Q33" r:id="rId27" xr:uid="{28B0133F-CC3A-4748-845D-FE2FDAF2A56D}"/>
+    <hyperlink ref="Q17" r:id="rId28" xr:uid="{4B1D7DE7-B6CB-4F4B-AA12-9C58259214CD}"/>
+    <hyperlink ref="Q20" r:id="rId29" xr:uid="{E01F87EB-29CE-4362-A309-CCFCDFCB7018}"/>
+    <hyperlink ref="Q34" r:id="rId30" xr:uid="{F786FBAD-02D8-4EA9-988B-B28AA52340BF}"/>
+    <hyperlink ref="Q35" r:id="rId31" xr:uid="{8C97A54F-A448-48DD-BF59-94926D0EE56B}"/>
+    <hyperlink ref="Q36" r:id="rId32" display="https://github.com/ParadropLabs/Paradrop" xr:uid="{88850A09-8A0E-4EB7-9116-8E1E9016E581}"/>
+    <hyperlink ref="Q37" r:id="rId33" display="https://github.com/fogbed/fogbed" xr:uid="{2BF05C0E-CD23-4866-A523-020F58678AC1}"/>
+    <hyperlink ref="Q39" r:id="rId34" xr:uid="{9E691AAB-3716-4D4F-9A16-BE2946E764AB}"/>
+    <hyperlink ref="Q40" r:id="rId35" xr:uid="{901C773D-FD51-4A15-B831-B724F07F122D}"/>
+    <hyperlink ref="Q41" r:id="rId36" xr:uid="{0303BD42-06DC-4BA2-9CC6-753B105C924E}"/>
+    <hyperlink ref="Q38" r:id="rId37" xr:uid="{F439ED57-CDA7-480E-9ADE-AA2DAE8E24A0}"/>
+    <hyperlink ref="Q24" r:id="rId38" display="http://simgrid.gforge.inria.fr" xr:uid="{2B37E65A-5594-439A-AF61-442EC7378B73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId46"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
 
@@ -3103,8 +2934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0ECC1E-0276-4E25-9545-6E5C69A5CE5C}">
   <dimension ref="A1:R81"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A67" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3153,7 +2984,7 @@
         <v>196</v>
       </c>
       <c r="M1" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N1" s="20" t="s">
         <v>195</v>
@@ -3206,7 +3037,7 @@
         <v>157</v>
       </c>
       <c r="R2" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3262,7 +3093,7 @@
         <v>157</v>
       </c>
       <c r="R3" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -3292,7 +3123,7 @@
         <v>157</v>
       </c>
       <c r="R4" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -3322,7 +3153,7 @@
         <v>157</v>
       </c>
       <c r="R5" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -3352,7 +3183,7 @@
         <v>157</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -3388,7 +3219,7 @@
         <v>157</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -3424,7 +3255,7 @@
         <v>157</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -3454,7 +3285,7 @@
         <v>157</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="72" x14ac:dyDescent="0.3">
@@ -3484,7 +3315,7 @@
         <v>157</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -3514,7 +3345,7 @@
         <v>157</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -3560,7 +3391,7 @@
         <v>157</v>
       </c>
       <c r="R12" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -3590,7 +3421,7 @@
         <v>157</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -3620,7 +3451,7 @@
         <v>157</v>
       </c>
       <c r="R14" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -3650,7 +3481,7 @@
         <v>157</v>
       </c>
       <c r="R15" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -3702,7 +3533,7 @@
         <v>157</v>
       </c>
       <c r="R16" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -3732,7 +3563,7 @@
         <v>155</v>
       </c>
       <c r="R17" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -3764,7 +3595,7 @@
         <v>209</v>
       </c>
       <c r="R18" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -3794,7 +3625,7 @@
         <v>212</v>
       </c>
       <c r="R19" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -3824,7 +3655,7 @@
         <v>150</v>
       </c>
       <c r="R20" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -3854,7 +3685,7 @@
         <v>147</v>
       </c>
       <c r="R21" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -3884,7 +3715,7 @@
         <v>144</v>
       </c>
       <c r="R22" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
@@ -3914,7 +3745,7 @@
         <v>141</v>
       </c>
       <c r="R23" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -3944,7 +3775,7 @@
         <v>226</v>
       </c>
       <c r="R24" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -3974,7 +3805,7 @@
         <v>137</v>
       </c>
       <c r="R25" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -4004,7 +3835,7 @@
         <v>135</v>
       </c>
       <c r="R26" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -4034,7 +3865,7 @@
         <v>132</v>
       </c>
       <c r="R27" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
@@ -4058,7 +3889,7 @@
       <c r="P28" s="16"/>
       <c r="Q28" s="18"/>
       <c r="R28" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -4090,7 +3921,7 @@
         <v>128</v>
       </c>
       <c r="R29" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -4128,7 +3959,7 @@
         <v>124</v>
       </c>
       <c r="R30" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -4184,7 +4015,7 @@
         <v>118</v>
       </c>
       <c r="R31" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -4240,7 +4071,7 @@
         <v>111</v>
       </c>
       <c r="R32" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -4288,7 +4119,7 @@
         <v>106</v>
       </c>
       <c r="R33" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -4328,7 +4159,7 @@
         <v>101</v>
       </c>
       <c r="R34" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -4362,7 +4193,7 @@
       </c>
       <c r="Q35" s="20"/>
       <c r="R35" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -4410,7 +4241,7 @@
         <v>95</v>
       </c>
       <c r="R36" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -4444,7 +4275,7 @@
       <c r="P37" s="13"/>
       <c r="Q37" s="20"/>
       <c r="R37" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:18" ht="72" x14ac:dyDescent="0.3">
@@ -4480,7 +4311,7 @@
       </c>
       <c r="Q38" s="15"/>
       <c r="R38" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -4522,7 +4353,7 @@
       <c r="P39" s="13"/>
       <c r="Q39" s="20"/>
       <c r="R39" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="40" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
@@ -4572,7 +4403,7 @@
       </c>
       <c r="Q40" s="18"/>
       <c r="R40" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -4620,7 +4451,7 @@
         <v>76</v>
       </c>
       <c r="R41" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="42" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -4656,7 +4487,7 @@
       </c>
       <c r="Q42" s="18"/>
       <c r="R42" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -4706,7 +4537,7 @@
         <v>66</v>
       </c>
       <c r="R43" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -4742,7 +4573,7 @@
       </c>
       <c r="Q44" s="18"/>
       <c r="R44" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -4776,7 +4607,7 @@
       </c>
       <c r="Q45" s="20"/>
       <c r="R45" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="72" x14ac:dyDescent="0.3">
@@ -4812,7 +4643,7 @@
         <v>57</v>
       </c>
       <c r="R46" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -4848,7 +4679,7 @@
         <v>54</v>
       </c>
       <c r="R47" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
@@ -4884,7 +4715,7 @@
         <v>51</v>
       </c>
       <c r="R48" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -4920,7 +4751,7 @@
         <v>46</v>
       </c>
       <c r="R49" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -4956,7 +4787,7 @@
         <v>43</v>
       </c>
       <c r="R50" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -4992,7 +4823,7 @@
         <v>40</v>
       </c>
       <c r="R51" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
@@ -5026,7 +4857,7 @@
       </c>
       <c r="Q52" s="18"/>
       <c r="R52" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="53" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -5060,7 +4891,7 @@
       </c>
       <c r="Q53" s="20"/>
       <c r="R53" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -5096,7 +4927,7 @@
         <v>31</v>
       </c>
       <c r="R54" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -5142,7 +4973,7 @@
       </c>
       <c r="Q55" s="20"/>
       <c r="R55" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -5184,7 +5015,7 @@
       <c r="P56" s="16"/>
       <c r="Q56" s="18"/>
       <c r="R56" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
@@ -5214,7 +5045,7 @@
       <c r="P57" s="13"/>
       <c r="Q57" s="20"/>
       <c r="R57" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -5246,7 +5077,7 @@
         <v>12</v>
       </c>
       <c r="R58" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -5276,7 +5107,7 @@
         <v>9</v>
       </c>
       <c r="R59" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -5308,7 +5139,7 @@
         <v>6</v>
       </c>
       <c r="R60" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -5328,7 +5159,7 @@
         <v>223</v>
       </c>
       <c r="R61" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -5358,7 +5189,7 @@
         <v>229</v>
       </c>
       <c r="R62" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -5378,7 +5209,7 @@
         <v>228</v>
       </c>
       <c r="R63" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -5410,7 +5241,7 @@
         <v>232</v>
       </c>
       <c r="R64" s="8" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -5430,7 +5261,7 @@
         <v>236</v>
       </c>
       <c r="R65" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
@@ -5462,7 +5293,7 @@
         <v>239</v>
       </c>
       <c r="R66" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -5482,7 +5313,7 @@
         <v>254</v>
       </c>
       <c r="R67" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="43.2" x14ac:dyDescent="0.3">
@@ -5514,7 +5345,7 @@
         <v>240</v>
       </c>
       <c r="R68" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
@@ -5534,7 +5365,7 @@
         <v>245</v>
       </c>
       <c r="R69" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="72" x14ac:dyDescent="0.3">
@@ -5566,7 +5397,7 @@
         <v>248</v>
       </c>
       <c r="R70" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.3">
@@ -5586,7 +5417,7 @@
         <v>249</v>
       </c>
       <c r="R71" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
@@ -5618,12 +5449,12 @@
         <v>251</v>
       </c>
       <c r="R72" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D73" s="17" t="s">
         <v>14</v>
@@ -5632,13 +5463,13 @@
         <v>20</v>
       </c>
       <c r="P73" s="5" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q73" s="25" t="s">
         <v>258</v>
       </c>
       <c r="R73" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
